--- a/飞鹰加速器计划项目实训/03需求分析与设计/3.1项目需求分析/EN-C200 项目需求规格书 V1.0.xlsx
+++ b/飞鹰加速器计划项目实训/03需求分析与设计/3.1项目需求分析/EN-C200 项目需求规格书 V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\作业\电巢\03需求分析与设计\3.1项目需求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BC6EE-475B-458B-8D27-400DAA213D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B3F2B4-4915-457F-9F97-D2EB33D1947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1650" windowWidth="16770" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16995" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -2721,33 +2721,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3305,8 +3305,8 @@
   </sheetPr>
   <dimension ref="A1:S203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -3335,7 +3335,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="86"/>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="89" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="86"/>
@@ -3363,7 +3363,7 @@
       <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="94" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="75"/>
@@ -3376,7 +3376,7 @@
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="75"/>
@@ -3407,7 +3407,7 @@
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="75"/>
@@ -3438,7 +3438,7 @@
       <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="75"/>
@@ -3469,7 +3469,7 @@
       <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="90" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="75"/>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="86"/>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="27"/>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="85" t="s">
         <v>297</v>
       </c>
       <c r="C41" s="86"/>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="27"/>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="85" t="s">
         <v>298</v>
       </c>
       <c r="C42" s="86"/>
@@ -4752,7 +4752,7 @@
         <v>330</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>332</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="51" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="85" t="s">
         <v>345</v>
       </c>
       <c r="C51" s="86"/>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="27"/>
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="89" t="s">
         <v>367</v>
       </c>
       <c r="C57" s="86"/>
@@ -4987,7 +4987,7 @@
       <c r="B59" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="C59" s="93" t="s">
+      <c r="C59" s="87" t="s">
         <v>371</v>
       </c>
       <c r="D59" s="75"/>
@@ -4998,7 +4998,7 @@
     <row r="60" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="27"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="88" t="s">
         <v>372</v>
       </c>
       <c r="D60" s="75"/>
@@ -5020,7 +5020,7 @@
     <row r="62" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="27"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="94" t="s">
+      <c r="C62" s="88" t="s">
         <v>374</v>
       </c>
       <c r="D62" s="75"/>
@@ -5057,7 +5057,7 @@
     <row r="65" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="27"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="88" t="s">
         <v>378</v>
       </c>
       <c r="D65" s="75"/>
@@ -5118,7 +5118,7 @@
       <c r="B70" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="87" t="s">
         <v>384</v>
       </c>
       <c r="D70" s="75"/>
@@ -5129,7 +5129,7 @@
     <row r="71" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
       <c r="B71" s="30"/>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="88" t="s">
         <v>385</v>
       </c>
       <c r="D71" s="75"/>
@@ -5162,7 +5162,7 @@
     <row r="74" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
       <c r="B74" s="30"/>
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="88" t="s">
         <v>388</v>
       </c>
       <c r="D74" s="75"/>
@@ -5221,7 +5221,7 @@
     <row r="79" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
       <c r="B79" s="30"/>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="88" t="s">
         <v>393</v>
       </c>
       <c r="D79" s="75"/>
@@ -5276,7 +5276,7 @@
     <row r="84" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
       <c r="B84" s="30"/>
-      <c r="C84" s="94" t="s">
+      <c r="C84" s="88" t="s">
         <v>398</v>
       </c>
       <c r="D84" s="75"/>
@@ -5298,7 +5298,7 @@
     <row r="86" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
       <c r="B86" s="30"/>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="88" t="s">
         <v>400</v>
       </c>
       <c r="D86" s="75"/>
@@ -5342,7 +5342,7 @@
     <row r="90" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
       <c r="B90" s="30"/>
-      <c r="C90" s="94" t="s">
+      <c r="C90" s="88" t="s">
         <v>404</v>
       </c>
       <c r="D90" s="75"/>
@@ -5366,7 +5366,7 @@
       <c r="B92" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="C92" s="93" t="s">
+      <c r="C92" s="87" t="s">
         <v>407</v>
       </c>
       <c r="D92" s="75"/>
@@ -5405,7 +5405,7 @@
       <c r="B95" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="C95" s="93" t="s">
+      <c r="C95" s="87" t="s">
         <v>411</v>
       </c>
       <c r="D95" s="75"/>
@@ -5466,7 +5466,7 @@
       <c r="B100" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C100" s="93" t="s">
+      <c r="C100" s="87" t="s">
         <v>417</v>
       </c>
       <c r="D100" s="75"/>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
-      <c r="B106" s="90" t="s">
+      <c r="B106" s="85" t="s">
         <v>422</v>
       </c>
       <c r="C106" s="86"/>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="115" spans="1:7" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
-      <c r="B115" s="90" t="s">
+      <c r="B115" s="85" t="s">
         <v>432</v>
       </c>
       <c r="C115" s="86"/>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="127" spans="1:7" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
-      <c r="B127" s="90" t="s">
+      <c r="B127" s="85" t="s">
         <v>442</v>
       </c>
       <c r="C127" s="86"/>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="135" spans="1:7" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
-      <c r="B135" s="90" t="s">
+      <c r="B135" s="85" t="s">
         <v>448</v>
       </c>
       <c r="C135" s="86"/>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
-      <c r="B143" s="90" t="s">
+      <c r="B143" s="85" t="s">
         <v>454</v>
       </c>
       <c r="C143" s="86"/>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="152" spans="1:14" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
-      <c r="B152" s="90" t="s">
+      <c r="B152" s="85" t="s">
         <v>501</v>
       </c>
       <c r="C152" s="86"/>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
-      <c r="B158" s="90" t="s">
+      <c r="B158" s="85" t="s">
         <v>505</v>
       </c>
       <c r="C158" s="86"/>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="159" spans="1:14" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
-      <c r="B159" s="90" t="s">
+      <c r="B159" s="85" t="s">
         <v>506</v>
       </c>
       <c r="C159" s="86"/>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="167" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
-      <c r="B167" s="90" t="s">
+      <c r="B167" s="85" t="s">
         <v>512</v>
       </c>
       <c r="C167" s="86"/>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="174" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
-      <c r="B174" s="90" t="s">
+      <c r="B174" s="85" t="s">
         <v>513</v>
       </c>
       <c r="C174" s="86"/>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="181" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
-      <c r="B181" s="90" t="s">
+      <c r="B181" s="85" t="s">
         <v>518</v>
       </c>
       <c r="C181" s="86"/>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="188" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
-      <c r="B188" s="90" t="s">
+      <c r="B188" s="85" t="s">
         <v>523</v>
       </c>
       <c r="C188" s="86"/>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="195" spans="1:7" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
-      <c r="B195" s="90" t="s">
+      <c r="B195" s="85" t="s">
         <v>528</v>
       </c>
       <c r="C195" s="86"/>
@@ -6770,46 +6770,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B174:C174"/>
     <mergeCell ref="B181:C181"/>
     <mergeCell ref="B188:C188"/>
     <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="47">
